--- a/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5_捷豹组.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuanbingqiu/work/Mogo_Doc/VersionRecords/Version 5.1.5 20161208/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="83">
   <si>
     <t>No</t>
   </si>
@@ -331,6 +331,16 @@
   </si>
   <si>
     <t>partner、partnerpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全性一起</t>
+    <rPh sb="0" eb="1">
+      <t>an'quan'x</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yi'qi</t>
+    </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -350,6 +360,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -357,26 +368,27 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -384,12 +396,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -397,23 +411,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -421,22 +437,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -514,6 +534,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -521,6 +542,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -736,7 +758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,6 +829,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1068,7 +1102,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="26">
+  <cellStyles count="30">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1086,6 +1120,8 @@
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1095,6 +1131,8 @@
     <cellStyle name="已访问的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1467,7 +1505,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1683,20 +1721,46 @@
       <c r="C4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="D4" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="39">
+        <v>42709</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="39">
+        <v>42709</v>
+      </c>
       <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
+      <c r="L4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P4" s="39">
+        <v>42710</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>79</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="52"/>
@@ -5437,10 +5501,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 T1:T1048576 I1:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L4 M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">

--- a/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5_捷豹组.xlsx
+++ b/VersionRecords/Version 5.1.5 20161208/版本Bug和特性计划及评审表v5.1.5_捷豹组.xlsx
@@ -334,12 +334,18 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>安全性一起</t>
+    <t>捷豹组安全性一期</t>
     <rPh sb="0" eb="1">
+      <t>jie'bao'zu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
       <t>an'quan'x</t>
     </rPh>
-    <rPh sb="3" eb="4">
+    <rPh sb="6" eb="7">
       <t>yi'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qi</t>
     </rPh>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -758,7 +764,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +847,18 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1102,7 +1120,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="34">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="5"/>
     <cellStyle name="常规 2 2" xfId="11"/>
@@ -1122,6 +1140,8 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="甘特图" xfId="2"/>
     <cellStyle name="个性色4" xfId="8" builtinId="41"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" hidden="1"/>
@@ -1133,6 +1153,8 @@
     <cellStyle name="已访问的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1505,7 +1527,7 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
